--- a/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BD4D4-120F-4D27-85E8-6119A5924801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C53B4-8EAF-46B8-B9B4-F95263C06BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -1383,24 +1383,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2500,7 +2497,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2795,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="46"/>
       <c r="G23" s="26"/>
     </row>
@@ -2804,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2812,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2820,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="53"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
@@ -2829,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
@@ -2838,7 +2837,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="46"/>
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
@@ -2981,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="26"/>
@@ -3097,7 +3096,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="20"/>
@@ -3303,7 +3302,7 @@
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="53">
         <v>45841</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -3312,7 +3311,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" s="13"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
@@ -3322,7 +3321,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -5476,6 +5475,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5710,17 +5720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5731,6 +5730,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5749,17 +5759,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>

--- a/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C53B4-8EAF-46B8-B9B4-F95263C06BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8782D3A-1628-4262-A17A-038D087055DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4367" yWindow="1793" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$59</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$58</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1390,13 +1390,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
